--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.078566</v>
+        <v>0.559584</v>
       </c>
       <c r="N2">
-        <v>0.157132</v>
+        <v>1.678752</v>
       </c>
       <c r="O2">
-        <v>0.004019777884324682</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P2">
-        <v>0.002683447543913378</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q2">
-        <v>8.005274016553001</v>
+        <v>59.70829829039999</v>
       </c>
       <c r="R2">
-        <v>32.021096066212</v>
+        <v>358.2497897424</v>
       </c>
       <c r="S2">
-        <v>0.0007612853544202575</v>
+        <v>0.0006215017070649993</v>
       </c>
       <c r="T2">
-        <v>0.0003707497822535515</v>
+        <v>0.0004506358117105243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H3">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I3">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J3">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.559584</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N3">
-        <v>1.678752</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O3">
-        <v>0.02863074851235831</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P3">
-        <v>0.02866916306824626</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q3">
-        <v>57.017326264272</v>
+        <v>2993.855657191924</v>
       </c>
       <c r="R3">
-        <v>342.103957585632</v>
+        <v>17963.13394315155</v>
       </c>
       <c r="S3">
-        <v>0.005422232311278484</v>
+        <v>0.03116294476525303</v>
       </c>
       <c r="T3">
-        <v>0.003960981457995279</v>
+        <v>0.02259549531391929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H4">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I4">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J4">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.038439</v>
+        <v>131.297198</v>
       </c>
       <c r="N4">
-        <v>24.115317</v>
+        <v>393.891594</v>
       </c>
       <c r="O4">
-        <v>0.4112814616588985</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P4">
-        <v>0.4118332877729713</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q4">
-        <v>819.0554038686746</v>
+        <v>14009.57186566755</v>
       </c>
       <c r="R4">
-        <v>4914.332423212048</v>
+        <v>84057.4311940053</v>
       </c>
       <c r="S4">
-        <v>0.07789051094749154</v>
+        <v>0.1458251713591726</v>
       </c>
       <c r="T4">
-        <v>0.05689960368814353</v>
+        <v>0.1057342943973513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H5">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I5">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J5">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.050657</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N5">
-        <v>0.151971</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O5">
-        <v>0.002591832195685608</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P5">
-        <v>0.002595309718555481</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q5">
-        <v>5.1615605459935</v>
+        <v>346.911326336075</v>
       </c>
       <c r="R5">
-        <v>30.969363275961</v>
+        <v>2081.46795801645</v>
       </c>
       <c r="S5">
-        <v>0.0004908539597137055</v>
+        <v>0.003610988550861433</v>
       </c>
       <c r="T5">
-        <v>0.0003585725069295526</v>
+        <v>0.002618240204647849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>72.30378333333333</v>
+      </c>
+      <c r="H6">
+        <v>216.91135</v>
+      </c>
+      <c r="I6">
+        <v>0.1228002345746721</v>
+      </c>
+      <c r="J6">
+        <v>0.1335592068937293</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>101.8923455</v>
-      </c>
-      <c r="H6">
-        <v>203.784691</v>
-      </c>
-      <c r="I6">
-        <v>0.1893849302940161</v>
-      </c>
-      <c r="J6">
-        <v>0.138161740144498</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>10.817615</v>
+        <v>0.559584</v>
       </c>
       <c r="N6">
-        <v>32.452845</v>
+        <v>1.678752</v>
       </c>
       <c r="O6">
-        <v>0.553476179748733</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P6">
-        <v>0.5542187918963136</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q6">
-        <v>1102.232165065983</v>
+        <v>40.4600402928</v>
       </c>
       <c r="R6">
-        <v>6613.392990395896</v>
+        <v>364.1403626352</v>
       </c>
       <c r="S6">
-        <v>0.1048200477211121</v>
+        <v>0.000421147224588326</v>
       </c>
       <c r="T6">
-        <v>0.0765718327091761</v>
+        <v>0.0004580454548505681</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>216.91135</v>
       </c>
       <c r="I7">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J7">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.078566</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N7">
-        <v>0.157132</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O7">
-        <v>0.004019777884324682</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P7">
-        <v>0.002683447543913378</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q7">
-        <v>5.680619041366666</v>
+        <v>2028.721701825627</v>
       </c>
       <c r="R7">
-        <v>34.0837142482</v>
+        <v>18258.49531643065</v>
       </c>
       <c r="S7">
-        <v>0.0005402153719274445</v>
+        <v>0.02111689726463299</v>
       </c>
       <c r="T7">
-        <v>0.0003946313895621526</v>
+        <v>0.0229670249449381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J8">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.559584</v>
+        <v>131.297198</v>
       </c>
       <c r="N8">
-        <v>1.678752</v>
+        <v>393.891594</v>
       </c>
       <c r="O8">
-        <v>0.02863074851235831</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P8">
-        <v>0.02866916306824626</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q8">
-        <v>40.4600402928</v>
+        <v>9493.284156465767</v>
       </c>
       <c r="R8">
-        <v>364.1403626352</v>
+        <v>85439.5574081919</v>
       </c>
       <c r="S8">
-        <v>0.003847667931225302</v>
+        <v>0.09881528159118903</v>
       </c>
       <c r="T8">
-        <v>0.004216125515428066</v>
+        <v>0.1074728455040085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,43 +995,43 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.038439</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N9">
-        <v>24.115317</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O9">
-        <v>0.4112814616588985</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P9">
-        <v>0.4118332877729713</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q9">
-        <v>581.2095517942166</v>
+        <v>235.0769766259277</v>
       </c>
       <c r="R9">
-        <v>5230.88596614795</v>
+        <v>2115.69278963335</v>
       </c>
       <c r="S9">
-        <v>0.05527185187105205</v>
+        <v>0.002446908494261733</v>
       </c>
       <c r="T9">
-        <v>0.06056475483950946</v>
+        <v>0.002661290989932127</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>72.30378333333333</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H10">
-        <v>216.91135</v>
+        <v>421.698968</v>
       </c>
       <c r="I10">
-        <v>0.1343893586842299</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J10">
-        <v>0.147061339230297</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.050657</v>
+        <v>0.559584</v>
       </c>
       <c r="N10">
-        <v>0.151971</v>
+        <v>1.678752</v>
       </c>
       <c r="O10">
-        <v>0.002591832195685608</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P10">
-        <v>0.002595309718555481</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q10">
-        <v>3.662692752316667</v>
+        <v>78.65866510310398</v>
       </c>
       <c r="R10">
-        <v>32.96423477085</v>
+        <v>707.927985927936</v>
       </c>
       <c r="S10">
-        <v>0.0003483146665953282</v>
+        <v>0.0008187554500258345</v>
       </c>
       <c r="T10">
-        <v>0.0003816697229281743</v>
+        <v>0.0008904895737709214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>72.30378333333333</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H11">
-        <v>216.91135</v>
+        <v>421.698968</v>
       </c>
       <c r="I11">
-        <v>0.1343893586842299</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J11">
-        <v>0.147061339230297</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.817615</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N11">
-        <v>32.452845</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O11">
-        <v>0.553476179748733</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P11">
-        <v>0.5542187918963136</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q11">
-        <v>782.1544911434167</v>
+        <v>3944.05294153151</v>
       </c>
       <c r="R11">
-        <v>7039.390420290751</v>
+        <v>35496.47647378359</v>
       </c>
       <c r="S11">
-        <v>0.07438130884342976</v>
+        <v>0.04105351694993255</v>
       </c>
       <c r="T11">
-        <v>0.08150415776286916</v>
+        <v>0.04465036392660252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H12">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I12">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J12">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.078566</v>
+        <v>131.297198</v>
       </c>
       <c r="N12">
-        <v>0.157132</v>
+        <v>393.891594</v>
       </c>
       <c r="O12">
-        <v>0.004019777884324682</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P12">
-        <v>0.002683447543913378</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q12">
-        <v>11.94782912325333</v>
+        <v>18455.96429929722</v>
       </c>
       <c r="R12">
-        <v>71.68697473951998</v>
+        <v>166103.678693675</v>
       </c>
       <c r="S12">
-        <v>0.001136214364410366</v>
+        <v>0.1921075235096449</v>
       </c>
       <c r="T12">
-        <v>0.0008300131332211755</v>
+        <v>0.208938757870733</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H13">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I13">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J13">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.559584</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N13">
-        <v>1.678752</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O13">
-        <v>0.02863074851235831</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P13">
-        <v>0.02866916306824626</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q13">
-        <v>85.09805783807998</v>
+        <v>457.0148977622141</v>
       </c>
       <c r="R13">
-        <v>765.8825205427199</v>
+        <v>4113.134079859928</v>
       </c>
       <c r="S13">
-        <v>0.008092653041954667</v>
+        <v>0.004757052993403095</v>
       </c>
       <c r="T13">
-        <v>0.008867615809773407</v>
+        <v>0.005173835596902035</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,122 +1278,122 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.0737866666666</v>
+        <v>35.5906295</v>
       </c>
       <c r="H14">
-        <v>456.2213599999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I14">
-        <v>0.2826560066517826</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J14">
-        <v>0.3093084994725608</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>8.038439</v>
+        <v>0.559584</v>
       </c>
       <c r="N14">
-        <v>24.115317</v>
+        <v>1.678752</v>
       </c>
       <c r="O14">
-        <v>0.4112814616588985</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P14">
-        <v>0.4118332877729713</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q14">
-        <v>1222.435857619013</v>
+        <v>19.915946818128</v>
       </c>
       <c r="R14">
-        <v>11001.92271857112</v>
+        <v>119.495680908768</v>
       </c>
       <c r="S14">
-        <v>0.1162511755624125</v>
+        <v>0.0002073044333817903</v>
       </c>
       <c r="T14">
-        <v>0.1273835362739091</v>
+        <v>0.0001503114159562932</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.0737866666666</v>
+        <v>35.5906295</v>
       </c>
       <c r="H15">
-        <v>456.2213599999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I15">
-        <v>0.2826560066517826</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J15">
-        <v>0.3093084994725608</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.050657</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N15">
-        <v>0.151971</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O15">
-        <v>0.002591832195685608</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P15">
-        <v>0.002595309718555481</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q15">
-        <v>7.703601811173333</v>
+        <v>998.61278510717</v>
       </c>
       <c r="R15">
-        <v>69.33241630055998</v>
+        <v>5991.67671064302</v>
       </c>
       <c r="S15">
-        <v>0.0007325969383440155</v>
+        <v>0.01039452753489086</v>
       </c>
       <c r="T15">
-        <v>0.00080275135471295</v>
+        <v>0.007536819770219951</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.0737866666666</v>
+        <v>35.5906295</v>
       </c>
       <c r="H16">
-        <v>456.2213599999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I16">
-        <v>0.2826560066517826</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J16">
-        <v>0.3093084994725608</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.817615</v>
+        <v>131.297198</v>
       </c>
       <c r="N16">
-        <v>32.452845</v>
+        <v>393.891594</v>
       </c>
       <c r="O16">
-        <v>0.553476179748733</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P16">
-        <v>0.5542187918963136</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q16">
-        <v>1645.075675752134</v>
+        <v>4672.949928406141</v>
       </c>
       <c r="R16">
-        <v>14805.6810817692</v>
+        <v>28037.69957043685</v>
       </c>
       <c r="S16">
-        <v>0.1564433667446611</v>
+        <v>0.04864058163922975</v>
       </c>
       <c r="T16">
-        <v>0.1714245829009442</v>
+        <v>0.03526810584733264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H17">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I17">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J17">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.078566</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N17">
-        <v>0.157132</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O17">
-        <v>0.004019777884324682</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P17">
-        <v>0.002683447543913378</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q17">
-        <v>2.921652422859</v>
+        <v>115.7136901191232</v>
       </c>
       <c r="R17">
-        <v>11.686609691436</v>
+        <v>694.2821407147388</v>
       </c>
       <c r="S17">
-        <v>0.000277843231303498</v>
+        <v>0.001204459982933197</v>
       </c>
       <c r="T17">
-        <v>0.0001353110458624816</v>
+        <v>0.0008733247164278175</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.1872365</v>
+        <v>69.033643</v>
       </c>
       <c r="H18">
-        <v>74.37447299999999</v>
+        <v>207.100929</v>
       </c>
       <c r="I18">
-        <v>0.06911905067863602</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J18">
-        <v>0.05042433051072508</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>1.678752</v>
       </c>
       <c r="O18">
-        <v>0.02863074851235831</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P18">
-        <v>0.02866916306824626</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q18">
-        <v>20.809382549616</v>
+        <v>38.630122084512</v>
       </c>
       <c r="R18">
-        <v>124.856295297696</v>
+        <v>347.671098760608</v>
       </c>
       <c r="S18">
-        <v>0.001978930157392977</v>
+        <v>0.0004020996663291891</v>
       </c>
       <c r="T18">
-        <v>0.001445623354019122</v>
+        <v>0.0004373290711794483</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.1872365</v>
+        <v>69.033643</v>
       </c>
       <c r="H19">
-        <v>74.37447299999999</v>
+        <v>207.100929</v>
       </c>
       <c r="I19">
-        <v>0.06911905067863602</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J19">
-        <v>0.05042433051072508</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.038439</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N19">
-        <v>24.115317</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O19">
-        <v>0.4112814616588985</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P19">
-        <v>0.4118332877729713</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q19">
-        <v>298.9273321838235</v>
+        <v>1936.967102599972</v>
       </c>
       <c r="R19">
-        <v>1793.563993102941</v>
+        <v>17432.70392339975</v>
       </c>
       <c r="S19">
-        <v>0.0284273841915849</v>
+        <v>0.0201618266683742</v>
       </c>
       <c r="T19">
-        <v>0.02076641781798286</v>
+        <v>0.02192827716236543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,57 +1653,57 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.1872365</v>
+        <v>69.033643</v>
       </c>
       <c r="H20">
-        <v>74.37447299999999</v>
+        <v>207.100929</v>
       </c>
       <c r="I20">
-        <v>0.06911905067863602</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J20">
-        <v>0.05042433051072508</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.050657</v>
+        <v>131.297198</v>
       </c>
       <c r="N20">
-        <v>0.151971</v>
+        <v>393.891594</v>
       </c>
       <c r="O20">
-        <v>0.002591832195685608</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P20">
-        <v>0.002595309718555481</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q20">
-        <v>1.8837938393805</v>
+        <v>9063.923893632315</v>
       </c>
       <c r="R20">
-        <v>11.302763036283</v>
+        <v>81575.31504269083</v>
       </c>
       <c r="S20">
-        <v>0.000179144980884114</v>
+        <v>0.09434608478040382</v>
       </c>
       <c r="T20">
-        <v>0.0001308667550261385</v>
+        <v>0.1026120862101206</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.1872365</v>
+        <v>69.033643</v>
       </c>
       <c r="H21">
-        <v>74.37447299999999</v>
+        <v>207.100929</v>
       </c>
       <c r="I21">
-        <v>0.06911905067863602</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J21">
-        <v>0.05042433051072508</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.817615</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N21">
-        <v>32.452845</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O21">
-        <v>0.553476179748733</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P21">
-        <v>0.5542187918963136</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q21">
-        <v>402.2772073709476</v>
+        <v>224.4449644785343</v>
       </c>
       <c r="R21">
-        <v>2413.663244225685</v>
+        <v>2020.004680306809</v>
       </c>
       <c r="S21">
-        <v>0.03825574811747054</v>
+        <v>0.002336240230580816</v>
       </c>
       <c r="T21">
-        <v>0.02794611153783448</v>
+        <v>0.002540926679743928</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>88.97649266666667</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H22">
-        <v>266.929478</v>
+        <v>493.788887</v>
       </c>
       <c r="I22">
-        <v>0.1653785353432923</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J22">
-        <v>0.180972579418846</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.078566</v>
+        <v>0.559584</v>
       </c>
       <c r="N22">
-        <v>0.157132</v>
+        <v>1.678752</v>
       </c>
       <c r="O22">
-        <v>0.004019777884324682</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="P22">
-        <v>0.002683447543913378</v>
+        <v>0.003429531108364747</v>
       </c>
       <c r="Q22">
-        <v>6.990527122849334</v>
+        <v>92.10545351433601</v>
       </c>
       <c r="R22">
-        <v>41.943162737096</v>
+        <v>828.9490816290241</v>
       </c>
       <c r="S22">
-        <v>0.0006647849789149743</v>
+        <v>0.0009587226269746079</v>
       </c>
       <c r="T22">
-        <v>0.0004856304237571711</v>
+        <v>0.001042719780896992</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>88.97649266666667</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H23">
-        <v>266.929478</v>
+        <v>493.788887</v>
       </c>
       <c r="I23">
-        <v>0.1653785353432923</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J23">
-        <v>0.180972579418846</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.559584</v>
+        <v>28.05830633333333</v>
       </c>
       <c r="N23">
-        <v>1.678752</v>
+        <v>84.17491899999999</v>
       </c>
       <c r="O23">
-        <v>0.02863074851235831</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="P23">
-        <v>0.02866916306824626</v>
+        <v>0.1719613756258118</v>
       </c>
       <c r="Q23">
-        <v>49.789821672384</v>
+        <v>4618.29328514724</v>
       </c>
       <c r="R23">
-        <v>448.1083950514561</v>
+        <v>41564.63956632515</v>
       </c>
       <c r="S23">
-        <v>0.004734911254755963</v>
+        <v>0.0480716624427282</v>
       </c>
       <c r="T23">
-        <v>0.005188332390240044</v>
+        <v>0.05228339450776652</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>88.97649266666667</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H24">
-        <v>266.929478</v>
+        <v>493.788887</v>
       </c>
       <c r="I24">
-        <v>0.1653785353432923</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J24">
-        <v>0.180972579418846</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.038439</v>
+        <v>131.297198</v>
       </c>
       <c r="N24">
-        <v>24.115317</v>
+        <v>393.891594</v>
       </c>
       <c r="O24">
-        <v>0.4112814616588985</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="P24">
-        <v>0.4118332877729713</v>
+        <v>0.8046831663916869</v>
       </c>
       <c r="Q24">
-        <v>715.2321087349474</v>
+        <v>21611.03242221288</v>
       </c>
       <c r="R24">
-        <v>6437.088978614526</v>
+        <v>194499.2917999159</v>
       </c>
       <c r="S24">
-        <v>0.06801712574299706</v>
+        <v>0.2249485235120469</v>
       </c>
       <c r="T24">
-        <v>0.07453053237881851</v>
+        <v>0.2446570765621408</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,418 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>88.97649266666667</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H25">
-        <v>266.929478</v>
+        <v>493.788887</v>
       </c>
       <c r="I25">
-        <v>0.1653785353432923</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J25">
-        <v>0.180972579418846</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.050657</v>
+        <v>3.251240333333333</v>
       </c>
       <c r="N25">
-        <v>0.151971</v>
+        <v>9.753720999999999</v>
       </c>
       <c r="O25">
-        <v>0.002591832195685608</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="P25">
-        <v>0.002595309718555481</v>
+        <v>0.01992592687413657</v>
       </c>
       <c r="Q25">
-        <v>4.507282189015334</v>
+        <v>535.1421151887253</v>
       </c>
       <c r="R25">
-        <v>40.565539701138</v>
+        <v>4816.279036698526</v>
       </c>
       <c r="S25">
-        <v>0.0004286334123780752</v>
+        <v>0.005570276622096295</v>
       </c>
       <c r="T25">
-        <v>0.0004696798941577848</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>88.97649266666667</v>
-      </c>
-      <c r="H26">
-        <v>266.929478</v>
-      </c>
-      <c r="I26">
-        <v>0.1653785353432923</v>
-      </c>
-      <c r="J26">
-        <v>0.180972579418846</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.817615</v>
-      </c>
-      <c r="N26">
-        <v>32.452845</v>
-      </c>
-      <c r="O26">
-        <v>0.553476179748733</v>
-      </c>
-      <c r="P26">
-        <v>0.5542187918963136</v>
-      </c>
-      <c r="Q26">
-        <v>962.5134417183235</v>
-      </c>
-      <c r="R26">
-        <v>8662.620975464912</v>
-      </c>
-      <c r="S26">
-        <v>0.09153307995424625</v>
-      </c>
-      <c r="T26">
-        <v>0.1002984043318725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>85.58353199999999</v>
-      </c>
-      <c r="H27">
-        <v>256.750596</v>
-      </c>
-      <c r="I27">
-        <v>0.1590721183480431</v>
-      </c>
-      <c r="J27">
-        <v>0.1740715112230731</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.5</v>
-      </c>
-      <c r="M27">
-        <v>0.078566</v>
-      </c>
-      <c r="N27">
-        <v>0.157132</v>
-      </c>
-      <c r="O27">
-        <v>0.004019777884324682</v>
-      </c>
-      <c r="P27">
-        <v>0.002683447543913378</v>
-      </c>
-      <c r="Q27">
-        <v>6.723955775111999</v>
-      </c>
-      <c r="R27">
-        <v>40.343734650672</v>
-      </c>
-      <c r="S27">
-        <v>0.0006394345833481421</v>
-      </c>
-      <c r="T27">
-        <v>0.0004671117692568455</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>85.58353199999999</v>
-      </c>
-      <c r="H28">
-        <v>256.750596</v>
-      </c>
-      <c r="I28">
-        <v>0.1590721183480431</v>
-      </c>
-      <c r="J28">
-        <v>0.1740715112230731</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.559584</v>
-      </c>
-      <c r="N28">
-        <v>1.678752</v>
-      </c>
-      <c r="O28">
-        <v>0.02863074851235831</v>
-      </c>
-      <c r="P28">
-        <v>0.02866916306824626</v>
-      </c>
-      <c r="Q28">
-        <v>47.89117517068799</v>
-      </c>
-      <c r="R28">
-        <v>431.020576536192</v>
-      </c>
-      <c r="S28">
-        <v>0.00455435381575092</v>
-      </c>
-      <c r="T28">
-        <v>0.004990484540790341</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>85.58353199999999</v>
-      </c>
-      <c r="H29">
-        <v>256.750596</v>
-      </c>
-      <c r="I29">
-        <v>0.1590721183480431</v>
-      </c>
-      <c r="J29">
-        <v>0.1740715112230731</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>8.038439</v>
-      </c>
-      <c r="N29">
-        <v>24.115317</v>
-      </c>
-      <c r="O29">
-        <v>0.4112814616588985</v>
-      </c>
-      <c r="P29">
-        <v>0.4118332877729713</v>
-      </c>
-      <c r="Q29">
-        <v>687.9580013865479</v>
-      </c>
-      <c r="R29">
-        <v>6191.622012478932</v>
-      </c>
-      <c r="S29">
-        <v>0.06542341334336044</v>
-      </c>
-      <c r="T29">
-        <v>0.07168844277460787</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>85.58353199999999</v>
-      </c>
-      <c r="H30">
-        <v>256.750596</v>
-      </c>
-      <c r="I30">
-        <v>0.1590721183480431</v>
-      </c>
-      <c r="J30">
-        <v>0.1740715112230731</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.050657</v>
-      </c>
-      <c r="N30">
-        <v>0.151971</v>
-      </c>
-      <c r="O30">
-        <v>0.002591832195685608</v>
-      </c>
-      <c r="P30">
-        <v>0.002595309718555481</v>
-      </c>
-      <c r="Q30">
-        <v>4.335404980523999</v>
-      </c>
-      <c r="R30">
-        <v>39.01864482471599</v>
-      </c>
-      <c r="S30">
-        <v>0.0004122882377703693</v>
-      </c>
-      <c r="T30">
-        <v>0.0004517694848008812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>85.58353199999999</v>
-      </c>
-      <c r="H31">
-        <v>256.750596</v>
-      </c>
-      <c r="I31">
-        <v>0.1590721183480431</v>
-      </c>
-      <c r="J31">
-        <v>0.1740715112230731</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>10.817615</v>
-      </c>
-      <c r="N31">
-        <v>32.452845</v>
-      </c>
-      <c r="O31">
-        <v>0.553476179748733</v>
-      </c>
-      <c r="P31">
-        <v>0.5542187918963136</v>
-      </c>
-      <c r="Q31">
-        <v>925.8096995161801</v>
-      </c>
-      <c r="R31">
-        <v>8332.287295645619</v>
-      </c>
-      <c r="S31">
-        <v>0.08804262836781322</v>
-      </c>
-      <c r="T31">
-        <v>0.09647370265361717</v>
+        <v>0.00605830868648281</v>
       </c>
     </row>
   </sheetData>
